--- a/result/rp/evaluation.xlsx
+++ b/result/rp/evaluation.xlsx
@@ -513,7 +513,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>3.183070442695546</v>
+        <v>3.177498660408351</v>
       </c>
       <c r="C2">
         <v>-0.8006820438348328</v>
@@ -542,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3.054848549610023</v>
+        <v>3.049504513166279</v>
       </c>
       <c r="C3">
         <v>-0.7690314402971854</v>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.183070442695546</v>
+        <v>3.177498660408351</v>
       </c>
       <c r="C4">
         <v>-0.8006820438348328</v>
@@ -600,7 +600,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.741528885685098</v>
+        <v>1.740374496696406</v>
       </c>
       <c r="C5">
         <v>4.709788453889539</v>
@@ -629,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2.990681558991285</v>
+        <v>2.991133256807602</v>
       </c>
       <c r="C6">
         <v>4.047661523604154</v>
@@ -745,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9663771981098503</v>
+        <v>0.9638168577548312</v>
       </c>
       <c r="C10">
         <v>-0.4884790937957085</v>
@@ -774,7 +774,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5627527151341681</v>
+        <v>0.5608050313664484</v>
       </c>
       <c r="C11">
         <v>-0.5683837919844372</v>
@@ -803,7 +803,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>13.03929379572255</v>
+        <v>13.00433607369738</v>
       </c>
       <c r="C12">
         <v>-6.963135884012186</v>
@@ -832,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.1817913974164317</v>
+        <v>-0.1815067580037308</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -861,7 +861,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.2907261452254783</v>
+        <v>-0.2902703257097022</v>
       </c>
       <c r="C14">
         <v>0.08934311143250923</v>

--- a/result/rp/evaluation.xlsx
+++ b/result/rp/evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>RP</t>
   </si>
@@ -79,49 +79,52 @@
     <t>IR(0.9x国债+0.1x沪深300)</t>
   </si>
   <si>
-    <t>20101019-20101130</t>
-  </si>
-  <si>
-    <t>20101019-20101231</t>
-  </si>
-  <si>
-    <t>20100406-20100930</t>
+    <t>20130530-20131220</t>
+  </si>
+  <si>
+    <t>20101019-20111031</t>
+  </si>
+  <si>
+    <t>20150608-20150826</t>
+  </si>
+  <si>
+    <t>20150608-20180108</t>
   </si>
   <si>
     <t>--</t>
   </si>
   <si>
-    <t>20101019-20101126</t>
-  </si>
-  <si>
-    <t>20100831-20101126</t>
-  </si>
-  <si>
-    <t>20100831-20101231</t>
-  </si>
-  <si>
-    <t>20100906-20101126</t>
-  </si>
-  <si>
-    <t>20100906-20101231</t>
-  </si>
-  <si>
-    <t>20100105-20100705</t>
-  </si>
-  <si>
-    <t>20100105-20101105</t>
-  </si>
-  <si>
-    <t>20100105-20100701</t>
-  </si>
-  <si>
-    <t>20100105-20101231</t>
-  </si>
-  <si>
-    <t>20100112-20100205</t>
-  </si>
-  <si>
-    <t>20100112-20100409</t>
+    <t>20130528-20131120</t>
+  </si>
+  <si>
+    <t>20161024-20180417</t>
+  </si>
+  <si>
+    <t>20161021-20180628</t>
+  </si>
+  <si>
+    <t>20161024-20161220</t>
+  </si>
+  <si>
+    <t>20100906-20111104</t>
+  </si>
+  <si>
+    <t>20150608-20160128</t>
+  </si>
+  <si>
+    <t>20150608-20200708</t>
+  </si>
+  <si>
+    <t>20150608-20150825</t>
+  </si>
+  <si>
+    <t>20100105-20141205</t>
+  </si>
+  <si>
+    <t>20110906-20150731</t>
+  </si>
+  <si>
+    <t>20110906-20200515</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +522,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>3.533223704389354</v>
+        <v>3.577855772692229</v>
       </c>
       <c r="C2">
         <v>-0.8006820438348328</v>
@@ -544,360 +547,744 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>2.869004667648634</v>
+      </c>
+      <c r="C3">
+        <v>1.304727661782357</v>
+      </c>
+      <c r="D3">
+        <v>4.216518766100941</v>
+      </c>
+      <c r="E3">
+        <v>7.060658285552779</v>
+      </c>
+      <c r="F3">
+        <v>4.308650553486348</v>
+      </c>
+      <c r="G3">
+        <v>-24.73174128421951</v>
+      </c>
+      <c r="H3">
+        <v>-17.28043933094776</v>
+      </c>
+      <c r="I3">
+        <v>-36.37254077597147</v>
+      </c>
+      <c r="J3">
+        <v>6.165672854632698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>5.760942288930138</v>
+      </c>
+      <c r="C4">
+        <v>3.882433787815698</v>
+      </c>
+      <c r="D4">
+        <v>3.371532272145261</v>
+      </c>
+      <c r="E4">
+        <v>2.898996219404526</v>
+      </c>
+      <c r="F4">
+        <v>6.512869620180628</v>
+      </c>
+      <c r="G4">
+        <v>10.18098812360857</v>
+      </c>
+      <c r="H4">
+        <v>18.82737576789861</v>
+      </c>
+      <c r="I4">
+        <v>-1.242172916840334</v>
+      </c>
+      <c r="J4">
+        <v>4.770867311158411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>-0.2174841080655576</v>
+      </c>
+      <c r="C5">
+        <v>-3.397059047952677</v>
+      </c>
+      <c r="D5">
+        <v>-3.20357225206569</v>
+      </c>
+      <c r="E5">
+        <v>-3.022916024628619</v>
+      </c>
+      <c r="F5">
+        <v>1.813317706009587</v>
+      </c>
+      <c r="G5">
+        <v>-5.635954094826845</v>
+      </c>
+      <c r="H5">
+        <v>-13.02571824688491</v>
+      </c>
+      <c r="I5">
+        <v>90.57939168755327</v>
+      </c>
+      <c r="J5">
+        <v>-30.73713072351598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>14.45343646243047</v>
+      </c>
+      <c r="C6">
+        <v>17.75905335550287</v>
+      </c>
+      <c r="D6">
+        <v>14.39582535964816</v>
+      </c>
+      <c r="E6">
+        <v>11.26986257429179</v>
+      </c>
+      <c r="F6">
+        <v>10.39194243080477</v>
+      </c>
+      <c r="G6">
+        <v>57.83734242193208</v>
+      </c>
+      <c r="H6">
+        <v>72.32217094002029</v>
+      </c>
+      <c r="I6">
+        <v>13.7838002075211</v>
+      </c>
+      <c r="J6">
+        <v>1.796944088002994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>10.74263728990026</v>
+      </c>
+      <c r="C7">
+        <v>8.269709494039379</v>
+      </c>
+      <c r="D7">
+        <v>8.362891368768288</v>
+      </c>
+      <c r="E7">
+        <v>8.454480854025647</v>
+      </c>
+      <c r="F7">
+        <v>9.380684867283385</v>
+      </c>
+      <c r="G7">
+        <v>7.461572928342464</v>
+      </c>
+      <c r="H7">
+        <v>-4.335041696818176</v>
+      </c>
+      <c r="I7">
+        <v>88.54685379347968</v>
+      </c>
+      <c r="J7">
+        <v>-7.601581170134287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>2.472908854891132</v>
+      </c>
+      <c r="C8">
+        <v>0.08444352419667567</v>
+      </c>
+      <c r="D8">
+        <v>1.187886349623057</v>
+      </c>
+      <c r="E8">
+        <v>2.271025397411308</v>
+      </c>
+      <c r="F8">
+        <v>2.327921614551354</v>
+      </c>
+      <c r="G8">
+        <v>-9.547439559628323</v>
+      </c>
+      <c r="H8">
+        <v>-2.806095941236997</v>
+      </c>
+      <c r="I8">
+        <v>-28.2027939583982</v>
+      </c>
+      <c r="J8">
+        <v>19.07320945040947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>3.240643885338956</v>
+      </c>
+      <c r="C9">
+        <v>2.615083958955733</v>
+      </c>
+      <c r="D9">
+        <v>0.312645522710997</v>
+      </c>
+      <c r="E9">
+        <v>-1.89828589502653</v>
+      </c>
+      <c r="F9">
+        <v>2.372337850912243</v>
+      </c>
+      <c r="G9">
+        <v>25.13883807822241</v>
+      </c>
+      <c r="H9">
+        <v>29.37716985498038</v>
+      </c>
+      <c r="I9">
+        <v>-10.38288392602208</v>
+      </c>
+      <c r="J9">
+        <v>3.563325268144779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>5.546533979708324</v>
+      </c>
+      <c r="C10">
+        <v>2.3296419480624</v>
+      </c>
+      <c r="D10">
+        <v>5.745675270818174</v>
+      </c>
+      <c r="E10">
+        <v>9.178378355313521</v>
+      </c>
+      <c r="F10">
+        <v>7.712759295949079</v>
+      </c>
+      <c r="G10">
+        <v>-24.39620862759923</v>
+      </c>
+      <c r="H10">
+        <v>-18.06526113943068</v>
+      </c>
+      <c r="I10">
+        <v>-29.11962288481481</v>
+      </c>
+      <c r="J10">
+        <v>4.409878709317416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>7.784788871987258</v>
+      </c>
+      <c r="C11">
+        <v>9.656605743058844</v>
+      </c>
+      <c r="D11">
+        <v>6.814505672499926</v>
+      </c>
+      <c r="E11">
+        <v>4.136788417338955</v>
+      </c>
+      <c r="F11">
+        <v>5.25952161029779</v>
+      </c>
+      <c r="G11">
+        <v>40.70362943723951</v>
+      </c>
+      <c r="H11">
+        <v>38.75463690916607</v>
+      </c>
+      <c r="I11">
+        <v>46.57982302955548</v>
+      </c>
+      <c r="J11">
+        <v>20.45664025273255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>5.760876590962294</v>
+      </c>
+      <c r="C12">
+        <v>8.214778929470068</v>
+      </c>
+      <c r="D12">
+        <v>5.471007772926995</v>
+      </c>
+      <c r="E12">
+        <v>2.753653272676471</v>
+      </c>
+      <c r="F12">
+        <v>3.447302298372468</v>
+      </c>
+      <c r="G12">
+        <v>31.15618083285163</v>
+      </c>
+      <c r="H12">
+        <v>22.87728522040475</v>
+      </c>
+      <c r="I12">
+        <v>69.12990433295096</v>
+      </c>
+      <c r="J12">
+        <v>15.00960073954261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>4.155242362194844</v>
+      </c>
+      <c r="C13">
+        <v>3.747690858206165</v>
+      </c>
+      <c r="D13">
+        <v>4.56098729825547</v>
+      </c>
+      <c r="E13">
+        <v>5.408718469367013</v>
+      </c>
+      <c r="F13">
+        <v>4.299737465316644</v>
+      </c>
+      <c r="G13">
+        <v>-1.735476394084479</v>
+      </c>
+      <c r="H13">
+        <v>-6.828302857375168</v>
+      </c>
+      <c r="I13">
+        <v>18.81146241166356</v>
+      </c>
+      <c r="J13">
+        <v>-6.016190200333249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>3.390666398369779</v>
-      </c>
-      <c r="C3">
-        <v>-0.7690314402971854</v>
-      </c>
-      <c r="D3">
-        <v>0.4557041301231024</v>
-      </c>
-      <c r="E3">
-        <v>1.680439700543412</v>
-      </c>
-      <c r="F3">
-        <v>4.02958442867456</v>
-      </c>
-      <c r="G3">
-        <v>-10.5669160036596</v>
-      </c>
-      <c r="H3">
-        <v>-20.29583678311482</v>
-      </c>
-      <c r="J3">
-        <v>23.74431095985896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="B15">
+        <v>85.07479963695263</v>
+      </c>
+      <c r="C15">
+        <v>63.8308575101282</v>
+      </c>
+      <c r="D15">
+        <v>61.73903545008017</v>
+      </c>
+      <c r="E15">
+        <v>59.64721339003214</v>
+      </c>
+      <c r="F15">
+        <v>78.71809889625926</v>
+      </c>
+      <c r="G15">
+        <v>80.56543399051242</v>
+      </c>
+      <c r="H15">
+        <v>79.94064437435442</v>
+      </c>
+      <c r="J15">
+        <v>50.62118168026571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>3.533223704389354</v>
-      </c>
-      <c r="C4">
-        <v>-0.8006820438348328</v>
-      </c>
-      <c r="D4">
-        <v>0.4745794936190872</v>
-      </c>
-      <c r="E4">
-        <v>1.750483676714309</v>
-      </c>
-      <c r="F4">
-        <v>4.199545560166063</v>
-      </c>
-      <c r="G4">
-        <v>-10.97868591084544</v>
-      </c>
-      <c r="H4">
-        <v>-21.0394847050468</v>
-      </c>
-      <c r="J4">
-        <v>24.83851641078343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
+      <c r="B16">
+        <v>5.106141981918699</v>
+      </c>
+      <c r="C16">
+        <v>4.074509223399891</v>
+      </c>
+      <c r="D16">
+        <v>3.966371402856073</v>
+      </c>
+      <c r="E16">
+        <v>3.856940421995847</v>
+      </c>
+      <c r="F16">
+        <v>4.809379832517857</v>
+      </c>
+      <c r="G16">
+        <v>4.896609756702697</v>
+      </c>
+      <c r="H16">
+        <v>4.867199779023812</v>
+      </c>
+      <c r="J16">
+        <v>3.369111086363041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>1.831218173674128</v>
-      </c>
-      <c r="C5">
-        <v>4.709788453889539</v>
-      </c>
-      <c r="D5">
-        <v>2.892441177042039</v>
-      </c>
-      <c r="E5">
-        <v>2.182357181509085</v>
-      </c>
-      <c r="F5">
-        <v>1.103639408867926</v>
-      </c>
-      <c r="G5">
-        <v>25.16216718816193</v>
-      </c>
-      <c r="H5">
-        <v>24.74142789162678</v>
-      </c>
-      <c r="I5">
-        <v>36.4636601920602</v>
-      </c>
-      <c r="J5">
-        <v>14.43298641749195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
+      <c r="B17">
+        <v>2.030023560514101</v>
+      </c>
+      <c r="C17">
+        <v>4.199362297935473</v>
+      </c>
+      <c r="D17">
+        <v>2.61791469153654</v>
+      </c>
+      <c r="E17">
+        <v>2.062784627011664</v>
+      </c>
+      <c r="F17">
+        <v>0.9991808602872699</v>
+      </c>
+      <c r="G17">
+        <v>21.99312905441591</v>
+      </c>
+      <c r="H17">
+        <v>22.31771854625275</v>
+      </c>
+      <c r="I17">
+        <v>29.98421243315283</v>
+      </c>
+      <c r="J17">
+        <v>14.02530445811948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>2.707443333711766</v>
-      </c>
-      <c r="C6">
-        <v>4.047661523604154</v>
-      </c>
-      <c r="D6">
-        <v>3.708371083148322</v>
-      </c>
-      <c r="E6">
-        <v>4.218194201278481</v>
-      </c>
-      <c r="F6">
-        <v>2.696833506190871</v>
-      </c>
-      <c r="G6">
-        <v>28.97894123810595</v>
-      </c>
-      <c r="H6">
-        <v>28.6900002119642</v>
-      </c>
-      <c r="I6">
+      <c r="B18">
+        <v>3.511433553672966</v>
+      </c>
+      <c r="C18">
+        <v>9.924291680870095</v>
+      </c>
+      <c r="D18">
+        <v>5.878770390395438</v>
+      </c>
+      <c r="E18">
+        <v>5.851804491363096</v>
+      </c>
+      <c r="F18">
+        <v>2.939153560456676</v>
+      </c>
+      <c r="G18">
+        <v>46.0589391154498</v>
+      </c>
+      <c r="H18">
+        <v>43.7960007079443</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>7.779432512933061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="J18">
+        <v>44.8841110094541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>377</v>
+      </c>
+      <c r="C20">
+        <v>945</v>
+      </c>
+      <c r="D20">
+        <v>540</v>
+      </c>
+      <c r="E20">
+        <v>615</v>
+      </c>
+      <c r="F20">
+        <v>424</v>
+      </c>
+      <c r="G20">
+        <v>1857</v>
+      </c>
+      <c r="H20">
+        <v>1795</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>1.776316502137187</v>
+      </c>
+      <c r="C22">
+        <v>0.6130568727014324</v>
+      </c>
+      <c r="D22">
+        <v>0.9420769909463469</v>
+      </c>
+      <c r="E22">
+        <v>1.142545923864951</v>
+      </c>
+      <c r="F22">
+        <v>3.311761451696861</v>
+      </c>
+      <c r="G22">
+        <v>0.1544388842720077</v>
+      </c>
+      <c r="H22">
+        <v>0.1508749509745064</v>
+      </c>
+      <c r="J22">
+        <v>0.1332661095046703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>1.02694219684923</v>
+      </c>
+      <c r="C23">
+        <v>0.2594122950993988</v>
+      </c>
+      <c r="D23">
+        <v>0.4195315152525712</v>
+      </c>
+      <c r="E23">
+        <v>0.402764676948246</v>
+      </c>
+      <c r="F23">
+        <v>1.125925261107338</v>
+      </c>
+      <c r="G23">
+        <v>0.07374469424316227</v>
+      </c>
+      <c r="H23">
+        <v>0.0768835518366827</v>
+      </c>
+      <c r="J23">
+        <v>0.04164295292991437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>29.0836429540162</v>
+      </c>
+      <c r="C24">
+        <v>9.667613878962808</v>
+      </c>
+      <c r="D24">
+        <v>15.26693669571082</v>
+      </c>
+      <c r="E24">
+        <v>19.11858586587187</v>
+      </c>
+      <c r="F24">
+        <v>50.50199611141328</v>
+      </c>
+      <c r="G24">
+        <v>2.427942953003564</v>
+      </c>
+      <c r="H24">
+        <v>2.468485337580928</v>
+      </c>
+      <c r="J24">
+        <v>2.141316964223678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>-0.06099600086322601</v>
+      </c>
+      <c r="C25" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>73</v>
-      </c>
-      <c r="C8">
-        <v>177</v>
-      </c>
-      <c r="D8">
-        <v>73</v>
-      </c>
-      <c r="E8">
-        <v>122</v>
-      </c>
-      <c r="F8">
-        <v>116</v>
-      </c>
-      <c r="G8">
-        <v>304</v>
-      </c>
-      <c r="H8">
-        <v>360</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>1.110251475476896</v>
-      </c>
-      <c r="C10">
-        <v>-0.4884790937957085</v>
-      </c>
-      <c r="D10">
-        <v>-0.3545050679034844</v>
-      </c>
-      <c r="E10">
-        <v>0.114771404835127</v>
-      </c>
-      <c r="F10">
-        <v>2.445817861060981</v>
-      </c>
-      <c r="G10">
-        <v>-0.4959285193790599</v>
-      </c>
-      <c r="H10">
-        <v>-0.9109980921054914</v>
-      </c>
-      <c r="J10">
-        <v>1.61701494300614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>0.7509477979811358</v>
-      </c>
-      <c r="C11">
-        <v>-0.5683837919844372</v>
-      </c>
-      <c r="D11">
-        <v>-0.2765076182043134</v>
-      </c>
-      <c r="E11">
-        <v>0.05938032407469185</v>
-      </c>
-      <c r="F11">
-        <v>1.000968527392016</v>
-      </c>
-      <c r="G11">
-        <v>-0.4306107233953832</v>
-      </c>
-      <c r="H11">
-        <v>-0.785618890785453</v>
-      </c>
-      <c r="J11">
-        <v>2.999989571607854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>14.96428370083709</v>
-      </c>
-      <c r="C12">
-        <v>-6.963135884012186</v>
-      </c>
-      <c r="D12">
-        <v>-4.852006759248007</v>
-      </c>
-      <c r="E12">
-        <v>1.452927787460295</v>
-      </c>
-      <c r="F12">
-        <v>30.34822111566441</v>
-      </c>
-      <c r="G12">
-        <v>-7.315411839289525</v>
-      </c>
-      <c r="H12">
-        <v>-13.89485746648749</v>
-      </c>
-      <c r="J12">
-        <v>25.21832998469386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>-0.2048536673807678</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>-0.08934311143250923</v>
-      </c>
-      <c r="E13">
-        <v>-0.0906016499056783</v>
-      </c>
-      <c r="F13">
-        <v>-0.1783833560859516</v>
-      </c>
-      <c r="G13">
-        <v>0.07728296741674848</v>
-      </c>
-      <c r="H13">
-        <v>0.1554931123937069</v>
-      </c>
-      <c r="J13">
-        <v>-0.2896794032562575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
+      <c r="D25">
+        <v>0.008458206609016979</v>
+      </c>
+      <c r="E25">
+        <v>0.008573163487342194</v>
+      </c>
+      <c r="F25">
+        <v>-0.02872640021723904</v>
+      </c>
+      <c r="G25">
+        <v>-0.007131026662455351</v>
+      </c>
+      <c r="H25">
+        <v>-0.006671938631790686</v>
+      </c>
+      <c r="J25">
+        <v>0.007764426056820343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14">
-        <v>-0.3475842348661836</v>
-      </c>
-      <c r="C14">
-        <v>0.08934311143250923</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <v>-0.09182213067639974</v>
-      </c>
-      <c r="F14">
-        <v>-0.2412756496382664</v>
-      </c>
-      <c r="G14">
-        <v>0.07849708938791328</v>
-      </c>
-      <c r="H14">
-        <v>0.1498099284753093</v>
-      </c>
-      <c r="J14">
-        <v>-0.275376835097305</v>
+      <c r="B26">
+        <v>-0.1269250091575139</v>
+      </c>
+      <c r="C26">
+        <v>-0.008458206609016979</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>0.008680040058490728</v>
+      </c>
+      <c r="F26">
+        <v>-0.05674091975591911</v>
+      </c>
+      <c r="G26">
+        <v>-0.00727483024953493</v>
+      </c>
+      <c r="H26">
+        <v>-0.006901249446038402</v>
+      </c>
+      <c r="J26">
+        <v>0.006717115544652307</v>
       </c>
     </row>
   </sheetData>

--- a/result/rp/evaluation.xlsx
+++ b/result/rp/evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>RP</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>20100105-20141205</t>
+  </si>
+  <si>
+    <t>20150106-20180523</t>
+  </si>
+  <si>
+    <t>20150106-20210805</t>
   </si>
   <si>
     <t>20110906-20150731</t>
@@ -482,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +528,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>3.577855772692229</v>
+        <v>3.568928571180563</v>
       </c>
       <c r="C2">
         <v>-0.8006820438348328</v>
@@ -551,7 +557,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>2.869004667648634</v>
+        <v>2.861963093059283</v>
       </c>
       <c r="C3">
         <v>1.304727661782357</v>
@@ -583,7 +589,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>5.760942288930138</v>
+        <v>5.755777680552265</v>
       </c>
       <c r="C4">
         <v>3.882433787815698</v>
@@ -615,7 +621,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>-0.2174841080655576</v>
+        <v>-0.2246310595382273</v>
       </c>
       <c r="C5">
         <v>-3.397059047952677</v>
@@ -647,7 +653,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>14.45343646243047</v>
+        <v>14.44778433313772</v>
       </c>
       <c r="C6">
         <v>17.75905335550287</v>
@@ -679,7 +685,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>10.74263728990026</v>
+        <v>10.73528321106567</v>
       </c>
       <c r="C7">
         <v>8.269709494039379</v>
@@ -711,7 +717,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>2.472908854891132</v>
+        <v>2.466727039294203</v>
       </c>
       <c r="C8">
         <v>0.08444352419667567</v>
@@ -743,7 +749,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>3.240643885338956</v>
+        <v>3.233788816510241</v>
       </c>
       <c r="C9">
         <v>2.615083958955733</v>
@@ -775,7 +781,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>5.546533979708324</v>
+        <v>5.53894955814358</v>
       </c>
       <c r="C10">
         <v>2.3296419480624</v>
@@ -807,7 +813,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>7.784788871987258</v>
+        <v>7.777982817134999</v>
       </c>
       <c r="C11">
         <v>9.656605743058844</v>
@@ -839,7 +845,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>5.760876590962294</v>
+        <v>5.755510281728782</v>
       </c>
       <c r="C12">
         <v>8.214778929470068</v>
@@ -871,7 +877,7 @@
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>4.155242362194844</v>
+        <v>4.149900657287953</v>
       </c>
       <c r="C13">
         <v>3.747690858206165</v>
@@ -899,392 +905,387 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>2022</v>
+      <c r="A14" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>84.94018208822101</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>63.8308575101282</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>61.73903545008017</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>59.64721339003214</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>78.71809889625926</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>80.56543399051242</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>79.94064437435442</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>282.0370353245317</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>50.62118168026571</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>85.07479963695263</v>
+        <v>5.455410414492023</v>
       </c>
       <c r="C15">
-        <v>63.8308575101282</v>
+        <v>4.357020751422613</v>
       </c>
       <c r="D15">
-        <v>61.73903545008017</v>
+        <v>4.241233374730768</v>
       </c>
       <c r="E15">
-        <v>59.64721339003214</v>
+        <v>4.124069682630971</v>
       </c>
       <c r="F15">
-        <v>78.71809889625926</v>
+        <v>5.144091254013694</v>
       </c>
       <c r="G15">
-        <v>80.56543399051242</v>
+        <v>5.237542285940622</v>
       </c>
       <c r="H15">
-        <v>79.94064437435442</v>
+        <v>5.206034242990731</v>
+      </c>
+      <c r="I15">
+        <v>12.7339835969142</v>
       </c>
       <c r="J15">
-        <v>50.62118168026571</v>
+        <v>3.601870960674192</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>5.106141981918699</v>
+        <v>2.095943762271863</v>
       </c>
       <c r="C16">
-        <v>4.074509223399891</v>
+        <v>4.339086163689695</v>
       </c>
       <c r="D16">
-        <v>3.966371402856073</v>
+        <v>2.704544491311172</v>
       </c>
       <c r="E16">
-        <v>3.856940421995847</v>
+        <v>2.130711748534584</v>
       </c>
       <c r="F16">
-        <v>4.809379832517857</v>
+        <v>1.029468659813999</v>
       </c>
       <c r="G16">
-        <v>4.896609756702697</v>
+        <v>22.72746547063657</v>
       </c>
       <c r="H16">
-        <v>4.867199779023812</v>
+        <v>23.06289908286513</v>
+      </c>
+      <c r="I16">
+        <v>31.01924932297745</v>
       </c>
       <c r="J16">
-        <v>3.369111086363041</v>
+        <v>14.49362675912996</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>2.030023560514101</v>
+        <v>3.51525948187507</v>
       </c>
       <c r="C17">
-        <v>4.199362297935473</v>
+        <v>9.924291680870095</v>
       </c>
       <c r="D17">
-        <v>2.61791469153654</v>
+        <v>5.878770390395438</v>
       </c>
       <c r="E17">
-        <v>2.062784627011664</v>
+        <v>5.851804491363096</v>
       </c>
       <c r="F17">
-        <v>0.9991808602872699</v>
+        <v>2.939153560456676</v>
       </c>
       <c r="G17">
-        <v>21.99312905441591</v>
+        <v>46.0589391154498</v>
       </c>
       <c r="H17">
-        <v>22.31771854625275</v>
+        <v>43.7960007079443</v>
       </c>
       <c r="I17">
-        <v>29.98421243315283</v>
+        <v>69.22841798653275</v>
       </c>
       <c r="J17">
-        <v>14.02530445811948</v>
+        <v>44.8841110094541</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>3.511433553672966</v>
-      </c>
-      <c r="C18">
-        <v>9.924291680870095</v>
-      </c>
-      <c r="D18">
-        <v>5.878770390395438</v>
-      </c>
-      <c r="E18">
-        <v>5.851804491363096</v>
-      </c>
-      <c r="F18">
-        <v>2.939153560456676</v>
-      </c>
-      <c r="G18">
-        <v>46.0589391154498</v>
-      </c>
-      <c r="H18">
-        <v>43.7960007079443</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>44.8841110094541</v>
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>377</v>
+      </c>
+      <c r="C19">
+        <v>945</v>
+      </c>
+      <c r="D19">
+        <v>540</v>
+      </c>
+      <c r="E19">
+        <v>615</v>
+      </c>
+      <c r="F19">
+        <v>424</v>
+      </c>
+      <c r="G19">
+        <v>1857</v>
+      </c>
+      <c r="H19">
+        <v>1795</v>
+      </c>
+      <c r="I19">
+        <v>2403</v>
+      </c>
+      <c r="J19">
+        <v>3174</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>377</v>
-      </c>
-      <c r="C20">
-        <v>945</v>
-      </c>
-      <c r="D20">
-        <v>540</v>
-      </c>
-      <c r="E20">
-        <v>615</v>
-      </c>
-      <c r="F20">
-        <v>424</v>
-      </c>
-      <c r="G20">
-        <v>1857</v>
-      </c>
-      <c r="H20">
-        <v>1795</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>3174</v>
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>1.887083889033322</v>
+      </c>
+      <c r="C21">
+        <v>0.6584231797497327</v>
+      </c>
+      <c r="D21">
+        <v>1.013528167393955</v>
+      </c>
+      <c r="E21">
+        <v>1.231488274098176</v>
+      </c>
+      <c r="F21">
+        <v>3.539434907305777</v>
+      </c>
+      <c r="G21">
+        <v>0.1644497423522739</v>
+      </c>
+      <c r="H21">
+        <v>0.1606917742863791</v>
+      </c>
+      <c r="I21">
+        <v>0.3621605172934003</v>
+      </c>
+      <c r="J21">
+        <v>0.1450193587615532</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>1.776316502137187</v>
+        <v>1.125179497256489</v>
       </c>
       <c r="C22">
-        <v>0.6130568727014324</v>
+        <v>0.2878786774336713</v>
       </c>
       <c r="D22">
-        <v>0.9420769909463469</v>
+        <v>0.4662857305391931</v>
       </c>
       <c r="E22">
-        <v>1.142545923864951</v>
+        <v>0.4484129374469236</v>
       </c>
       <c r="F22">
-        <v>3.311761451696861</v>
+        <v>1.239801595561394</v>
       </c>
       <c r="G22">
-        <v>0.1544388842720077</v>
+        <v>0.08114677070384042</v>
       </c>
       <c r="H22">
-        <v>0.1508749509745064</v>
+        <v>0.08462018725604226</v>
+      </c>
+      <c r="I22">
+        <v>0.162273928774549</v>
       </c>
       <c r="J22">
-        <v>0.1332661095046703</v>
+        <v>0.04682873806629837</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>1.02694219684923</v>
+        <v>29.65158951492512</v>
       </c>
       <c r="C23">
-        <v>0.2594122950993988</v>
+        <v>10.03385891922967</v>
       </c>
       <c r="D23">
-        <v>0.4195315152525712</v>
+        <v>15.85327071390837</v>
       </c>
       <c r="E23">
-        <v>0.402764676948246</v>
+        <v>19.85964832348571</v>
       </c>
       <c r="F23">
-        <v>1.125925261107338</v>
+        <v>50.64806829715589</v>
       </c>
       <c r="G23">
-        <v>0.07374469424316227</v>
+        <v>2.501991320001165</v>
       </c>
       <c r="H23">
-        <v>0.0768835518366827</v>
+        <v>2.548466659060828</v>
+      </c>
+      <c r="I23">
+        <v>5.568480786600949</v>
       </c>
       <c r="J23">
-        <v>0.04164295292991437</v>
+        <v>2.25767935113215</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>29.0836429540162</v>
-      </c>
-      <c r="C24">
-        <v>9.667613878962808</v>
+        <v>-0.0628458231774163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>15.26693669571082</v>
+        <v>0.008764011651703414</v>
       </c>
       <c r="E24">
-        <v>19.11858586587187</v>
+        <v>0.008882694387101249</v>
       </c>
       <c r="F24">
-        <v>50.50199611141328</v>
+        <v>-0.02977285894526444</v>
       </c>
       <c r="G24">
-        <v>2.427942953003564</v>
+        <v>-0.00739094144241649</v>
       </c>
       <c r="H24">
-        <v>2.468485337580928</v>
+        <v>-0.006915052832246443</v>
+      </c>
+      <c r="I24">
+        <v>-0.04680704617218703</v>
       </c>
       <c r="J24">
-        <v>2.141316964223678</v>
+        <v>0.008043395692369093</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>-0.06099600086322601</v>
-      </c>
-      <c r="C25" t="s">
+        <v>-0.1308588593060638</v>
+      </c>
+      <c r="C25">
+        <v>-0.008764011651703414</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D25">
-        <v>0.008458206609016979</v>
-      </c>
       <c r="E25">
-        <v>0.008573163487342194</v>
+        <v>0.008993226795665525</v>
       </c>
       <c r="F25">
-        <v>-0.02872640021723904</v>
+        <v>-0.05880705075024658</v>
       </c>
       <c r="G25">
-        <v>-0.007131026662455351</v>
+        <v>-0.007539716046119494</v>
       </c>
       <c r="H25">
-        <v>-0.006671938631790686</v>
+        <v>-0.007152463582014513</v>
+      </c>
+      <c r="I25">
+        <v>-0.0452702733819963</v>
       </c>
       <c r="J25">
-        <v>0.007764426056820343</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>-0.1269250091575139</v>
-      </c>
-      <c r="C26">
-        <v>-0.008458206609016979</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>0.008680040058490728</v>
-      </c>
-      <c r="F26">
-        <v>-0.05674091975591911</v>
-      </c>
-      <c r="G26">
-        <v>-0.00727483024953493</v>
-      </c>
-      <c r="H26">
-        <v>-0.006901249446038402</v>
-      </c>
-      <c r="J26">
-        <v>0.006717115544652307</v>
+        <v>0.006958211100291562</v>
       </c>
     </row>
   </sheetData>

--- a/result/rp/evaluation.xlsx
+++ b/result/rp/evaluation.xlsx
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>RP</t>
   </si>
   <si>
-    <t>0.8x国债+0.2x沪深300</t>
-  </si>
-  <si>
-    <t>0.9x国债+0.1x沪深300</t>
-  </si>
-  <si>
     <t>中债-国债总财富(总值)指数</t>
   </si>
   <si>
@@ -73,33 +67,15 @@
     <t>sortino比率</t>
   </si>
   <si>
-    <t>IR(0.8x国债+0.2x沪深300)</t>
-  </si>
-  <si>
-    <t>IR(0.9x国债+0.1x沪深300)</t>
-  </si>
-  <si>
     <t>20130530-20131220</t>
   </si>
   <si>
     <t>20101019-20111031</t>
   </si>
   <si>
-    <t>20150608-20150826</t>
-  </si>
-  <si>
-    <t>20150608-20180108</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>20130528-20131120</t>
   </si>
   <si>
-    <t>20161024-20180417</t>
-  </si>
-  <si>
     <t>20161021-20180628</t>
   </si>
   <si>
@@ -124,7 +100,7 @@
     <t>20150106-20180523</t>
   </si>
   <si>
-    <t>20150106-20210805</t>
+    <t>20150106-20200806</t>
   </si>
   <si>
     <t>20110906-20150731</t>
@@ -488,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,776 +492,548 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>3.568928571180563</v>
+        <v>2.824541556448912</v>
       </c>
       <c r="C2">
-        <v>-0.8006820438348328</v>
+        <v>1.750483676714309</v>
       </c>
       <c r="D2">
-        <v>0.4745794936190872</v>
+        <v>4.199545560166063</v>
       </c>
       <c r="E2">
-        <v>1.750483676714309</v>
+        <v>-10.97868591084544</v>
       </c>
       <c r="F2">
-        <v>4.199545560166063</v>
-      </c>
-      <c r="G2">
-        <v>-10.97868591084544</v>
+        <v>-21.0394847050468</v>
       </c>
       <c r="H2">
-        <v>-21.0394847050468</v>
-      </c>
-      <c r="J2">
         <v>24.83851641078343</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>2.861963093059283</v>
+        <v>2.475053549790807</v>
       </c>
       <c r="C3">
-        <v>1.304727661782357</v>
+        <v>7.060658285552779</v>
       </c>
       <c r="D3">
-        <v>4.216518766100941</v>
+        <v>4.308650553486348</v>
       </c>
       <c r="E3">
-        <v>7.060658285552779</v>
+        <v>-24.73174128421951</v>
       </c>
       <c r="F3">
-        <v>4.308650553486348</v>
+        <v>-17.28043933094776</v>
       </c>
       <c r="G3">
-        <v>-24.73174128421951</v>
+        <v>-36.37254077597147</v>
       </c>
       <c r="H3">
-        <v>-17.28043933094776</v>
-      </c>
-      <c r="I3">
-        <v>-36.37254077597147</v>
-      </c>
-      <c r="J3">
         <v>6.165672854632698</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>5.755777680552265</v>
+        <v>5.918237312963925</v>
       </c>
       <c r="C4">
-        <v>3.882433787815698</v>
+        <v>2.898996219404526</v>
       </c>
       <c r="D4">
-        <v>3.371532272145261</v>
+        <v>6.512869620180628</v>
       </c>
       <c r="E4">
-        <v>2.898996219404526</v>
+        <v>10.18098812360857</v>
       </c>
       <c r="F4">
-        <v>6.512869620180628</v>
+        <v>18.82737576789861</v>
       </c>
       <c r="G4">
-        <v>10.18098812360857</v>
+        <v>-1.242172916840334</v>
       </c>
       <c r="H4">
-        <v>18.82737576789861</v>
-      </c>
-      <c r="I4">
-        <v>-1.242172916840334</v>
-      </c>
-      <c r="J4">
         <v>4.770867311158411</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>-0.2246310595382273</v>
+        <v>-2.060461329682095</v>
       </c>
       <c r="C5">
-        <v>-3.397059047952677</v>
+        <v>-3.022916024628619</v>
       </c>
       <c r="D5">
-        <v>-3.20357225206569</v>
+        <v>1.813317706009587</v>
       </c>
       <c r="E5">
-        <v>-3.022916024628619</v>
+        <v>-5.635954094826845</v>
       </c>
       <c r="F5">
-        <v>1.813317706009587</v>
+        <v>-13.02571824688491</v>
       </c>
       <c r="G5">
-        <v>-5.635954094826845</v>
+        <v>90.57939168755327</v>
       </c>
       <c r="H5">
-        <v>-13.02571824688491</v>
-      </c>
-      <c r="I5">
-        <v>90.57939168755327</v>
-      </c>
-      <c r="J5">
         <v>-30.73713072351598</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>14.44778433313772</v>
+        <v>14.07243774001359</v>
       </c>
       <c r="C6">
-        <v>17.75905335550287</v>
+        <v>11.26986257429179</v>
       </c>
       <c r="D6">
-        <v>14.39582535964816</v>
+        <v>10.39194243080477</v>
       </c>
       <c r="E6">
-        <v>11.26986257429179</v>
+        <v>57.83734242193208</v>
       </c>
       <c r="F6">
-        <v>10.39194243080477</v>
+        <v>72.32217094002029</v>
       </c>
       <c r="G6">
-        <v>57.83734242193208</v>
+        <v>13.7838002075211</v>
       </c>
       <c r="H6">
-        <v>72.32217094002029</v>
-      </c>
-      <c r="I6">
-        <v>13.7838002075211</v>
-      </c>
-      <c r="J6">
         <v>1.796944088002994</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>10.73528321106567</v>
+        <v>10.22006566794402</v>
       </c>
       <c r="C7">
-        <v>8.269709494039379</v>
+        <v>8.454480854025647</v>
       </c>
       <c r="D7">
-        <v>8.362891368768288</v>
+        <v>9.380684867283385</v>
       </c>
       <c r="E7">
-        <v>8.454480854025647</v>
+        <v>7.461572928342464</v>
       </c>
       <c r="F7">
-        <v>9.380684867283385</v>
+        <v>-4.335041696818176</v>
       </c>
       <c r="G7">
-        <v>7.461572928342464</v>
+        <v>88.54685379347968</v>
       </c>
       <c r="H7">
-        <v>-4.335041696818176</v>
-      </c>
-      <c r="I7">
-        <v>88.54685379347968</v>
-      </c>
-      <c r="J7">
         <v>-7.601581170134287</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>2.466727039294203</v>
+        <v>2.781429680143499</v>
       </c>
       <c r="C8">
-        <v>0.08444352419667567</v>
+        <v>2.271025397411308</v>
       </c>
       <c r="D8">
-        <v>1.187886349623057</v>
+        <v>2.327921614551354</v>
       </c>
       <c r="E8">
-        <v>2.271025397411308</v>
+        <v>-9.547439559628323</v>
       </c>
       <c r="F8">
-        <v>2.327921614551354</v>
+        <v>-2.806095941236997</v>
       </c>
       <c r="G8">
-        <v>-9.547439559628323</v>
+        <v>-28.2027939583982</v>
       </c>
       <c r="H8">
-        <v>-2.806095941236997</v>
-      </c>
-      <c r="I8">
-        <v>-28.2027939583982</v>
-      </c>
-      <c r="J8">
         <v>19.07320945040947</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>3.233788816510241</v>
+        <v>3.270880336587667</v>
       </c>
       <c r="C9">
-        <v>2.615083958955733</v>
+        <v>-1.89828589502653</v>
       </c>
       <c r="D9">
-        <v>0.312645522710997</v>
+        <v>2.372337850912243</v>
       </c>
       <c r="E9">
-        <v>-1.89828589502653</v>
+        <v>25.13883807822241</v>
       </c>
       <c r="F9">
-        <v>2.372337850912243</v>
+        <v>29.37716985498038</v>
       </c>
       <c r="G9">
-        <v>25.13883807822241</v>
+        <v>-10.38288392602208</v>
       </c>
       <c r="H9">
-        <v>29.37716985498038</v>
-      </c>
-      <c r="I9">
-        <v>-10.38288392602208</v>
-      </c>
-      <c r="J9">
         <v>3.563325268144779</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>5.53894955814358</v>
+        <v>4.4863694814677</v>
       </c>
       <c r="C10">
-        <v>2.3296419480624</v>
+        <v>9.178378355313521</v>
       </c>
       <c r="D10">
-        <v>5.745675270818174</v>
+        <v>7.712759295949079</v>
       </c>
       <c r="E10">
-        <v>9.178378355313521</v>
+        <v>-24.39620862759923</v>
       </c>
       <c r="F10">
-        <v>7.712759295949079</v>
+        <v>-18.06526113943068</v>
       </c>
       <c r="G10">
-        <v>-24.39620862759923</v>
+        <v>-29.11962288481481</v>
       </c>
       <c r="H10">
-        <v>-18.06526113943068</v>
-      </c>
-      <c r="I10">
-        <v>-29.11962288481481</v>
-      </c>
-      <c r="J10">
         <v>4.409878709317416</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>7.777982817134999</v>
+        <v>9.920913099846507</v>
       </c>
       <c r="C11">
-        <v>9.656605743058844</v>
+        <v>4.136788417338955</v>
       </c>
       <c r="D11">
-        <v>6.814505672499926</v>
+        <v>5.25952161029779</v>
       </c>
       <c r="E11">
-        <v>4.136788417338955</v>
+        <v>40.70362943723951</v>
       </c>
       <c r="F11">
-        <v>5.25952161029779</v>
+        <v>38.75463690916607</v>
       </c>
       <c r="G11">
-        <v>40.70362943723951</v>
+        <v>46.57982302955548</v>
       </c>
       <c r="H11">
-        <v>38.75463690916607</v>
-      </c>
-      <c r="I11">
-        <v>46.57982302955548</v>
-      </c>
-      <c r="J11">
         <v>20.45664025273255</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>5.755510281728782</v>
+        <v>7.933997016151983</v>
       </c>
       <c r="C12">
-        <v>8.214778929470068</v>
+        <v>2.753653272676471</v>
       </c>
       <c r="D12">
-        <v>5.471007772926995</v>
+        <v>3.447302298372468</v>
       </c>
       <c r="E12">
-        <v>2.753653272676471</v>
+        <v>31.15618083285163</v>
       </c>
       <c r="F12">
-        <v>3.447302298372468</v>
+        <v>22.87728522040475</v>
       </c>
       <c r="G12">
-        <v>31.15618083285163</v>
+        <v>69.12990433295096</v>
       </c>
       <c r="H12">
-        <v>22.87728522040475</v>
-      </c>
-      <c r="I12">
-        <v>69.12990433295096</v>
-      </c>
-      <c r="J12">
         <v>15.00960073954261</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>2021</v>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>4.149900657287953</v>
+        <v>77.47953257395659</v>
       </c>
       <c r="C13">
-        <v>3.747690858206165</v>
+        <v>51.74061088523165</v>
       </c>
       <c r="D13">
-        <v>4.56098729825547</v>
+        <v>71.60830143790493</v>
       </c>
       <c r="E13">
-        <v>5.408718469367013</v>
+        <v>83.63959171078676</v>
       </c>
       <c r="F13">
-        <v>4.299737465316644</v>
+        <v>92.64079651607811</v>
       </c>
       <c r="G13">
-        <v>-1.735476394084479</v>
+        <v>223.5345287305301</v>
       </c>
       <c r="H13">
-        <v>-6.828302857375168</v>
-      </c>
-      <c r="I13">
-        <v>18.81146241166356</v>
-      </c>
-      <c r="J13">
-        <v>-6.016190200333249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>59.90815531592113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>5.555275176293328</v>
+      </c>
+      <c r="C14">
+        <v>4.008106023502811</v>
+      </c>
+      <c r="D14">
+        <v>5.2211599650267</v>
+      </c>
+      <c r="E14">
+        <v>5.895232199415368</v>
+      </c>
+      <c r="F14">
+        <v>6.373859077205557</v>
+      </c>
+      <c r="G14">
+        <v>12.17676534217091</v>
+      </c>
+      <c r="H14">
+        <v>4.523257786963297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
-        <v>84.94018208822101</v>
-      </c>
-      <c r="C14">
-        <v>63.8308575101282</v>
-      </c>
-      <c r="D14">
-        <v>61.73903545008017</v>
-      </c>
-      <c r="E14">
-        <v>59.64721339003214</v>
-      </c>
-      <c r="F14">
-        <v>78.71809889625926</v>
-      </c>
-      <c r="G14">
-        <v>80.56543399051242</v>
-      </c>
-      <c r="H14">
-        <v>79.94064437435442</v>
-      </c>
-      <c r="I14">
-        <v>282.0370353245317</v>
-      </c>
-      <c r="J14">
-        <v>50.62118168026571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
+      <c r="B15">
+        <v>3.018053473792839</v>
+      </c>
+      <c r="C15">
+        <v>2.175313092174764</v>
+      </c>
+      <c r="D15">
+        <v>1.07058149614743</v>
+      </c>
+      <c r="E15">
+        <v>23.08814295181051</v>
+      </c>
+      <c r="F15">
+        <v>23.39546336273399</v>
+      </c>
+      <c r="G15">
+        <v>31.34663863756998</v>
+      </c>
+      <c r="H15">
+        <v>14.71726565200787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>5.455410414492023</v>
-      </c>
-      <c r="C15">
-        <v>4.357020751422613</v>
-      </c>
-      <c r="D15">
-        <v>4.241233374730768</v>
-      </c>
-      <c r="E15">
-        <v>4.124069682630971</v>
-      </c>
-      <c r="F15">
-        <v>5.144091254013694</v>
-      </c>
-      <c r="G15">
-        <v>5.237542285940622</v>
-      </c>
-      <c r="H15">
-        <v>5.206034242990731</v>
-      </c>
-      <c r="I15">
-        <v>12.7339835969142</v>
-      </c>
-      <c r="J15">
-        <v>3.601870960674192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
+      <c r="B16">
+        <v>4.334083059960556</v>
+      </c>
+      <c r="C16">
+        <v>5.851804491363096</v>
+      </c>
+      <c r="D16">
+        <v>2.939153560456676</v>
+      </c>
+      <c r="E16">
+        <v>46.0589391154498</v>
+      </c>
+      <c r="F16">
+        <v>43.7960007079443</v>
+      </c>
+      <c r="G16">
+        <v>69.22841798653275</v>
+      </c>
+      <c r="H16">
+        <v>44.8841110094541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
-        <v>2.095943762271863</v>
-      </c>
-      <c r="C16">
-        <v>4.339086163689695</v>
-      </c>
-      <c r="D16">
-        <v>2.704544491311172</v>
-      </c>
-      <c r="E16">
-        <v>2.130711748534584</v>
-      </c>
-      <c r="F16">
-        <v>1.029468659813999</v>
-      </c>
-      <c r="G16">
-        <v>22.72746547063657</v>
-      </c>
-      <c r="H16">
-        <v>23.06289908286513</v>
-      </c>
-      <c r="I16">
-        <v>31.01924932297745</v>
-      </c>
-      <c r="J16">
-        <v>14.49362675912996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
-        <v>3.51525948187507</v>
-      </c>
-      <c r="C17">
-        <v>9.924291680870095</v>
-      </c>
-      <c r="D17">
-        <v>5.878770390395438</v>
-      </c>
-      <c r="E17">
-        <v>5.851804491363096</v>
-      </c>
-      <c r="F17">
-        <v>2.939153560456676</v>
-      </c>
-      <c r="G17">
-        <v>46.0589391154498</v>
-      </c>
-      <c r="H17">
-        <v>43.7960007079443</v>
-      </c>
-      <c r="I17">
-        <v>69.22841798653275</v>
-      </c>
-      <c r="J17">
-        <v>44.8841110094541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
+      <c r="B18">
+        <v>377</v>
+      </c>
+      <c r="C18">
+        <v>615</v>
+      </c>
+      <c r="D18">
+        <v>424</v>
+      </c>
+      <c r="E18">
+        <v>1857</v>
+      </c>
+      <c r="F18">
+        <v>1795</v>
+      </c>
+      <c r="G18">
+        <v>2038</v>
+      </c>
+      <c r="H18">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
-        <v>377</v>
-      </c>
-      <c r="C19">
-        <v>945</v>
-      </c>
-      <c r="D19">
-        <v>540</v>
-      </c>
-      <c r="E19">
-        <v>615</v>
-      </c>
-      <c r="F19">
-        <v>424</v>
-      </c>
-      <c r="G19">
-        <v>1857</v>
-      </c>
-      <c r="H19">
-        <v>1795</v>
-      </c>
-      <c r="I19">
-        <v>2403</v>
-      </c>
-      <c r="J19">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
+      <c r="B20">
+        <v>1.343627887549788</v>
+      </c>
+      <c r="C20">
+        <v>1.152933221062604</v>
+      </c>
+      <c r="D20">
+        <v>3.475506001006209</v>
+      </c>
+      <c r="E20">
+        <v>0.1903666818037666</v>
+      </c>
+      <c r="F20">
+        <v>0.2083240741690779</v>
+      </c>
+      <c r="G20">
+        <v>0.3406021106570398</v>
+      </c>
+      <c r="H20">
+        <v>0.2054211234842044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
+      <c r="B21">
+        <v>0.9356492608160011</v>
+      </c>
+      <c r="C21">
+        <v>0.4285965410413923</v>
+      </c>
+      <c r="D21">
+        <v>1.26602209999485</v>
+      </c>
+      <c r="E21">
+        <v>0.09542605064770129</v>
+      </c>
+      <c r="F21">
+        <v>0.1112852285573787</v>
+      </c>
+      <c r="G21">
+        <v>0.1542249589143003</v>
+      </c>
+      <c r="H21">
+        <v>0.06735682145167929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
-        <v>1.887083889033322</v>
-      </c>
-      <c r="C21">
-        <v>0.6584231797497327</v>
-      </c>
-      <c r="D21">
-        <v>1.013528167393955</v>
-      </c>
-      <c r="E21">
-        <v>1.231488274098176</v>
-      </c>
-      <c r="F21">
-        <v>3.539434907305777</v>
-      </c>
-      <c r="G21">
-        <v>0.1644497423522739</v>
-      </c>
-      <c r="H21">
-        <v>0.1606917742863791</v>
-      </c>
-      <c r="I21">
-        <v>0.3621605172934003</v>
-      </c>
-      <c r="J21">
-        <v>0.1450193587615532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B22">
-        <v>1.125179497256489</v>
+        <v>21.19343442532024</v>
       </c>
       <c r="C22">
-        <v>0.2878786774336713</v>
+        <v>18.51222630216838</v>
       </c>
       <c r="D22">
-        <v>0.4662857305391931</v>
+        <v>49.98920770870089</v>
       </c>
       <c r="E22">
-        <v>0.4484129374469236</v>
+        <v>2.895740065753289</v>
       </c>
       <c r="F22">
-        <v>1.239801595561394</v>
+        <v>3.307897729453089</v>
       </c>
       <c r="G22">
-        <v>0.08114677070384042</v>
+        <v>5.2033672335863</v>
       </c>
       <c r="H22">
-        <v>0.08462018725604226</v>
-      </c>
-      <c r="I22">
-        <v>0.162273928774549</v>
-      </c>
-      <c r="J22">
-        <v>0.04682873806629837</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>29.65158951492512</v>
-      </c>
-      <c r="C23">
-        <v>10.03385891922967</v>
-      </c>
-      <c r="D23">
-        <v>15.85327071390837</v>
-      </c>
-      <c r="E23">
-        <v>19.85964832348571</v>
-      </c>
-      <c r="F23">
-        <v>50.64806829715589</v>
-      </c>
-      <c r="G23">
-        <v>2.501991320001165</v>
-      </c>
-      <c r="H23">
-        <v>2.548466659060828</v>
-      </c>
-      <c r="I23">
-        <v>5.568480786600949</v>
-      </c>
-      <c r="J23">
-        <v>2.25767935113215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>-0.0628458231774163</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24">
-        <v>0.008764011651703414</v>
-      </c>
-      <c r="E24">
-        <v>0.008882694387101249</v>
-      </c>
-      <c r="F24">
-        <v>-0.02977285894526444</v>
-      </c>
-      <c r="G24">
-        <v>-0.00739094144241649</v>
-      </c>
-      <c r="H24">
-        <v>-0.006915052832246443</v>
-      </c>
-      <c r="I24">
-        <v>-0.04680704617218703</v>
-      </c>
-      <c r="J24">
-        <v>0.008043395692369093</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>-0.1308588593060638</v>
-      </c>
-      <c r="C25">
-        <v>-0.008764011651703414</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>0.008993226795665525</v>
-      </c>
-      <c r="F25">
-        <v>-0.05880705075024658</v>
-      </c>
-      <c r="G25">
-        <v>-0.007539716046119494</v>
-      </c>
-      <c r="H25">
-        <v>-0.007152463582014513</v>
-      </c>
-      <c r="I25">
-        <v>-0.0452702733819963</v>
-      </c>
-      <c r="J25">
-        <v>0.006958211100291562</v>
+        <v>3.19724676472951</v>
       </c>
     </row>
   </sheetData>

--- a/result/rp/evaluation.xlsx
+++ b/result/rp/evaluation.xlsx
@@ -498,7 +498,7 @@
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>2.824541556448912</v>
+        <v>2.85320876025752</v>
       </c>
       <c r="C2">
         <v>1.750483676714309</v>
@@ -521,7 +521,7 @@
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>2.475053549790807</v>
+        <v>2.484754410989809</v>
       </c>
       <c r="C3">
         <v>7.060658285552779</v>
@@ -547,7 +547,7 @@
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>5.918237312963925</v>
+        <v>5.921788749886647</v>
       </c>
       <c r="C4">
         <v>2.898996219404526</v>
@@ -573,7 +573,7 @@
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>-2.060461329682095</v>
+        <v>-2.05553154204684</v>
       </c>
       <c r="C5">
         <v>-3.022916024628619</v>
@@ -599,7 +599,7 @@
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>14.07243774001359</v>
+        <v>14.0766912743036</v>
       </c>
       <c r="C6">
         <v>11.26986257429179</v>
@@ -625,7 +625,7 @@
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>10.22006566794402</v>
+        <v>10.22558757648222</v>
       </c>
       <c r="C7">
         <v>8.454480854025647</v>
@@ -651,7 +651,7 @@
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>2.781429680143499</v>
+        <v>2.784832284432714</v>
       </c>
       <c r="C8">
         <v>2.271025397411308</v>
@@ -677,7 +677,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>3.270880336587667</v>
+        <v>3.273913271609952</v>
       </c>
       <c r="C9">
         <v>-1.89828589502653</v>
@@ -703,7 +703,7 @@
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>4.4863694814677</v>
+        <v>4.489950382974839</v>
       </c>
       <c r="C10">
         <v>9.178378355313521</v>
@@ -729,7 +729,7 @@
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>9.920913099846507</v>
+        <v>9.939636475060155</v>
       </c>
       <c r="C11">
         <v>4.136788417338955</v>
@@ -755,7 +755,7 @@
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>7.933997016151983</v>
+        <v>7.946863820468808</v>
       </c>
       <c r="C12">
         <v>2.753653272676471</v>
@@ -781,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>77.47953257395659</v>
+        <v>77.63887001634745</v>
       </c>
       <c r="C13">
         <v>51.74061088523165</v>
@@ -807,7 +807,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>5.555275176293328</v>
+        <v>5.564202311910371</v>
       </c>
       <c r="C14">
         <v>4.008106023502811</v>
@@ -833,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>3.018053473792839</v>
+        <v>3.018361366942336</v>
       </c>
       <c r="C15">
         <v>2.175313092174764</v>
@@ -859,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>4.334083059960556</v>
+        <v>4.331932248327655</v>
       </c>
       <c r="C16">
         <v>5.851804491363096</v>
@@ -963,7 +963,7 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>1.343627887549788</v>
+        <v>1.346448344981588</v>
       </c>
       <c r="C20">
         <v>1.152933221062604</v>
@@ -989,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>0.9356492608160011</v>
+        <v>0.9381745284743258</v>
       </c>
       <c r="C21">
         <v>0.4285965410413923</v>
@@ -1015,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>21.19343442532024</v>
+        <v>21.24152727666368</v>
       </c>
       <c r="C22">
         <v>18.51222630216838</v>

--- a/result/rp/evaluation.xlsx
+++ b/result/rp/evaluation.xlsx
@@ -14,17 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>RP</t>
   </si>
   <si>
-    <t>0.8x国债+0.2x沪深300</t>
-  </si>
-  <si>
-    <t>0.9x国债+0.1x沪深300</t>
-  </si>
-  <si>
     <t>中债-国债总财富(总值)指数</t>
   </si>
   <si>
@@ -37,6 +31,9 @@
     <t>上证50(全收益)</t>
   </si>
   <si>
+    <t>创业板指(全收益)</t>
+  </si>
+  <si>
     <t>SGE黄金9999</t>
   </si>
   <si>
@@ -70,55 +67,46 @@
     <t>sortino比率</t>
   </si>
   <si>
-    <t>IR(0.8x国债+0.2x沪深300)</t>
-  </si>
-  <si>
-    <t>IR(0.9x国债+0.1x沪深300)</t>
-  </si>
-  <si>
-    <t>20101019-20101130</t>
-  </si>
-  <si>
-    <t>20101019-20101231</t>
-  </si>
-  <si>
-    <t>20100406-20100930</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>20101019-20101126</t>
-  </si>
-  <si>
-    <t>20100831-20101126</t>
-  </si>
-  <si>
-    <t>20100831-20101231</t>
-  </si>
-  <si>
-    <t>20100906-20101126</t>
-  </si>
-  <si>
-    <t>20100906-20101231</t>
-  </si>
-  <si>
-    <t>20100105-20100705</t>
-  </si>
-  <si>
-    <t>20100105-20101105</t>
-  </si>
-  <si>
-    <t>20100105-20100701</t>
-  </si>
-  <si>
-    <t>20100105-20101231</t>
-  </si>
-  <si>
-    <t>20100112-20100205</t>
-  </si>
-  <si>
-    <t>20100112-20100409</t>
+    <t>20130530-20131220</t>
+  </si>
+  <si>
+    <t>20101019-20111031</t>
+  </si>
+  <si>
+    <t>20130528-20131120</t>
+  </si>
+  <si>
+    <t>20161021-20180628</t>
+  </si>
+  <si>
+    <t>20161024-20161220</t>
+  </si>
+  <si>
+    <t>20100906-20111104</t>
+  </si>
+  <si>
+    <t>20150608-20160128</t>
+  </si>
+  <si>
+    <t>20150608-20200708</t>
+  </si>
+  <si>
+    <t>20150608-20150825</t>
+  </si>
+  <si>
+    <t>20100105-20141205</t>
+  </si>
+  <si>
+    <t>20150106-20180523</t>
+  </si>
+  <si>
+    <t>20150106-20200806</t>
+  </si>
+  <si>
+    <t>20110906-20150731</t>
+  </si>
+  <si>
+    <t>20110906-20200515</t>
   </si>
 </sst>
 </file>
@@ -476,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,385 +492,548 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>3.177498660408351</v>
+        <v>2.85320876025752</v>
       </c>
       <c r="C2">
-        <v>-0.8006820438348328</v>
+        <v>1.750483676714309</v>
       </c>
       <c r="D2">
-        <v>0.4745794936190872</v>
+        <v>4.199545560166063</v>
       </c>
       <c r="E2">
-        <v>1.750483676714309</v>
+        <v>-10.97868591084544</v>
       </c>
       <c r="F2">
-        <v>4.199545560166063</v>
-      </c>
-      <c r="G2">
-        <v>-10.97868591084544</v>
+        <v>-21.0394847050468</v>
       </c>
       <c r="H2">
-        <v>-21.0394847050468</v>
-      </c>
-      <c r="I2">
         <v>24.83851641078343</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>2.484754410989809</v>
+      </c>
+      <c r="C3">
+        <v>7.060658285552779</v>
+      </c>
+      <c r="D3">
+        <v>4.308650553486348</v>
+      </c>
+      <c r="E3">
+        <v>-24.73174128421951</v>
+      </c>
+      <c r="F3">
+        <v>-17.28043933094776</v>
+      </c>
+      <c r="G3">
+        <v>-36.37254077597147</v>
+      </c>
+      <c r="H3">
+        <v>6.165672854632698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>5.921788749886647</v>
+      </c>
+      <c r="C4">
+        <v>2.898996219404526</v>
+      </c>
+      <c r="D4">
+        <v>6.512869620180628</v>
+      </c>
+      <c r="E4">
+        <v>10.18098812360857</v>
+      </c>
+      <c r="F4">
+        <v>18.82737576789861</v>
+      </c>
+      <c r="G4">
+        <v>-1.242172916840334</v>
+      </c>
+      <c r="H4">
+        <v>4.770867311158411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>-2.05553154204684</v>
+      </c>
+      <c r="C5">
+        <v>-3.022916024628619</v>
+      </c>
+      <c r="D5">
+        <v>1.813317706009587</v>
+      </c>
+      <c r="E5">
+        <v>-5.635954094826845</v>
+      </c>
+      <c r="F5">
+        <v>-13.02571824688491</v>
+      </c>
+      <c r="G5">
+        <v>90.57939168755327</v>
+      </c>
+      <c r="H5">
+        <v>-30.73713072351598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>14.0766912743036</v>
+      </c>
+      <c r="C6">
+        <v>11.26986257429179</v>
+      </c>
+      <c r="D6">
+        <v>10.39194243080477</v>
+      </c>
+      <c r="E6">
+        <v>57.83734242193208</v>
+      </c>
+      <c r="F6">
+        <v>72.32217094002029</v>
+      </c>
+      <c r="G6">
+        <v>13.7838002075211</v>
+      </c>
+      <c r="H6">
+        <v>1.796944088002994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>10.22558757648222</v>
+      </c>
+      <c r="C7">
+        <v>8.454480854025647</v>
+      </c>
+      <c r="D7">
+        <v>9.380684867283385</v>
+      </c>
+      <c r="E7">
+        <v>7.461572928342464</v>
+      </c>
+      <c r="F7">
+        <v>-4.335041696818176</v>
+      </c>
+      <c r="G7">
+        <v>88.54685379347968</v>
+      </c>
+      <c r="H7">
+        <v>-7.601581170134287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>2.784832284432714</v>
+      </c>
+      <c r="C8">
+        <v>2.271025397411308</v>
+      </c>
+      <c r="D8">
+        <v>2.327921614551354</v>
+      </c>
+      <c r="E8">
+        <v>-9.547439559628323</v>
+      </c>
+      <c r="F8">
+        <v>-2.806095941236997</v>
+      </c>
+      <c r="G8">
+        <v>-28.2027939583982</v>
+      </c>
+      <c r="H8">
+        <v>19.07320945040947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>3.273913271609952</v>
+      </c>
+      <c r="C9">
+        <v>-1.89828589502653</v>
+      </c>
+      <c r="D9">
+        <v>2.372337850912243</v>
+      </c>
+      <c r="E9">
+        <v>25.13883807822241</v>
+      </c>
+      <c r="F9">
+        <v>29.37716985498038</v>
+      </c>
+      <c r="G9">
+        <v>-10.38288392602208</v>
+      </c>
+      <c r="H9">
+        <v>3.563325268144779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>4.489950382974839</v>
+      </c>
+      <c r="C10">
+        <v>9.178378355313521</v>
+      </c>
+      <c r="D10">
+        <v>7.712759295949079</v>
+      </c>
+      <c r="E10">
+        <v>-24.39620862759923</v>
+      </c>
+      <c r="F10">
+        <v>-18.06526113943068</v>
+      </c>
+      <c r="G10">
+        <v>-29.11962288481481</v>
+      </c>
+      <c r="H10">
+        <v>4.409878709317416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>9.939636475060155</v>
+      </c>
+      <c r="C11">
+        <v>4.136788417338955</v>
+      </c>
+      <c r="D11">
+        <v>5.25952161029779</v>
+      </c>
+      <c r="E11">
+        <v>40.70362943723951</v>
+      </c>
+      <c r="F11">
+        <v>38.75463690916607</v>
+      </c>
+      <c r="G11">
+        <v>46.57982302955548</v>
+      </c>
+      <c r="H11">
+        <v>20.45664025273255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>7.946863820468808</v>
+      </c>
+      <c r="C12">
+        <v>2.753653272676471</v>
+      </c>
+      <c r="D12">
+        <v>3.447302298372468</v>
+      </c>
+      <c r="E12">
+        <v>31.15618083285163</v>
+      </c>
+      <c r="F12">
+        <v>22.87728522040475</v>
+      </c>
+      <c r="G12">
+        <v>69.12990433295096</v>
+      </c>
+      <c r="H12">
+        <v>15.00960073954261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>77.63887001634745</v>
+      </c>
+      <c r="C13">
+        <v>51.74061088523165</v>
+      </c>
+      <c r="D13">
+        <v>71.60830143790493</v>
+      </c>
+      <c r="E13">
+        <v>83.63959171078676</v>
+      </c>
+      <c r="F13">
+        <v>92.64079651607811</v>
+      </c>
+      <c r="G13">
+        <v>223.5345287305301</v>
+      </c>
+      <c r="H13">
+        <v>59.90815531592113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>3.049504513166279</v>
-      </c>
-      <c r="C3">
-        <v>-0.7690314402971854</v>
-      </c>
-      <c r="D3">
-        <v>0.4557041301231024</v>
-      </c>
-      <c r="E3">
-        <v>1.680439700543412</v>
-      </c>
-      <c r="F3">
-        <v>4.02958442867456</v>
-      </c>
-      <c r="G3">
-        <v>-10.5669160036596</v>
-      </c>
-      <c r="H3">
-        <v>-20.29583678311482</v>
-      </c>
-      <c r="I3">
-        <v>23.74431095985896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B14">
+        <v>5.564202311910371</v>
+      </c>
+      <c r="C14">
+        <v>4.008106023502811</v>
+      </c>
+      <c r="D14">
+        <v>5.2211599650267</v>
+      </c>
+      <c r="E14">
+        <v>5.895232199415368</v>
+      </c>
+      <c r="F14">
+        <v>6.373859077205557</v>
+      </c>
+      <c r="G14">
+        <v>12.17676534217091</v>
+      </c>
+      <c r="H14">
+        <v>4.523257786963297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>3.177498660408351</v>
-      </c>
-      <c r="C4">
-        <v>-0.8006820438348328</v>
-      </c>
-      <c r="D4">
-        <v>0.4745794936190872</v>
-      </c>
-      <c r="E4">
-        <v>1.750483676714309</v>
-      </c>
-      <c r="F4">
-        <v>4.199545560166063</v>
-      </c>
-      <c r="G4">
-        <v>-10.97868591084544</v>
-      </c>
-      <c r="H4">
-        <v>-21.0394847050468</v>
-      </c>
-      <c r="I4">
-        <v>24.83851641078343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B15">
+        <v>3.018361366942336</v>
+      </c>
+      <c r="C15">
+        <v>2.175313092174764</v>
+      </c>
+      <c r="D15">
+        <v>1.07058149614743</v>
+      </c>
+      <c r="E15">
+        <v>23.08814295181051</v>
+      </c>
+      <c r="F15">
+        <v>23.39546336273399</v>
+      </c>
+      <c r="G15">
+        <v>31.34663863756998</v>
+      </c>
+      <c r="H15">
+        <v>14.71726565200787</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>1.740374496696406</v>
-      </c>
-      <c r="C5">
-        <v>4.709788453889539</v>
-      </c>
-      <c r="D5">
-        <v>2.892441177042039</v>
-      </c>
-      <c r="E5">
-        <v>2.182357181509075</v>
-      </c>
-      <c r="F5">
-        <v>1.103639408867925</v>
-      </c>
-      <c r="G5">
-        <v>25.16216718816193</v>
-      </c>
-      <c r="H5">
-        <v>24.74142789162678</v>
-      </c>
-      <c r="I5">
-        <v>14.43298641749195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="B16">
+        <v>4.331932248327655</v>
+      </c>
+      <c r="C16">
+        <v>5.851804491363096</v>
+      </c>
+      <c r="D16">
+        <v>2.939153560456676</v>
+      </c>
+      <c r="E16">
+        <v>46.0589391154498</v>
+      </c>
+      <c r="F16">
+        <v>43.7960007079443</v>
+      </c>
+      <c r="G16">
+        <v>69.22841798653275</v>
+      </c>
+      <c r="H16">
+        <v>44.8841110094541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>2.991133256807602</v>
-      </c>
-      <c r="C6">
-        <v>4.047661523604154</v>
-      </c>
-      <c r="D6">
-        <v>3.708371083148322</v>
-      </c>
-      <c r="E6">
-        <v>4.218194201278493</v>
-      </c>
-      <c r="F6">
-        <v>2.696833506190862</v>
-      </c>
-      <c r="G6">
-        <v>28.97894123810595</v>
-      </c>
-      <c r="H6">
-        <v>28.6900002119642</v>
-      </c>
-      <c r="I6">
-        <v>7.779432512933059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B18">
+        <v>377</v>
+      </c>
+      <c r="C18">
+        <v>615</v>
+      </c>
+      <c r="D18">
+        <v>424</v>
+      </c>
+      <c r="E18">
+        <v>1857</v>
+      </c>
+      <c r="F18">
+        <v>1795</v>
+      </c>
+      <c r="G18">
+        <v>2038</v>
+      </c>
+      <c r="H18">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>73</v>
-      </c>
-      <c r="C8">
-        <v>177</v>
-      </c>
-      <c r="D8">
-        <v>73</v>
-      </c>
-      <c r="E8">
-        <v>122</v>
-      </c>
-      <c r="F8">
-        <v>116</v>
-      </c>
-      <c r="G8">
-        <v>304</v>
-      </c>
-      <c r="H8">
-        <v>360</v>
-      </c>
-      <c r="I8">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B20">
+        <v>1.346448344981588</v>
+      </c>
+      <c r="C20">
+        <v>1.152933221062604</v>
+      </c>
+      <c r="D20">
+        <v>3.475506001006209</v>
+      </c>
+      <c r="E20">
+        <v>0.1903666818037666</v>
+      </c>
+      <c r="F20">
+        <v>0.2083240741690779</v>
+      </c>
+      <c r="G20">
+        <v>0.3406021106570398</v>
+      </c>
+      <c r="H20">
+        <v>0.2054211234842044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0.9638168577548312</v>
-      </c>
-      <c r="C10">
-        <v>-0.4884790937957085</v>
-      </c>
-      <c r="D10">
-        <v>-0.3545050679034844</v>
-      </c>
-      <c r="E10">
-        <v>0.1147714048351276</v>
-      </c>
-      <c r="F10">
-        <v>2.445817861060985</v>
-      </c>
-      <c r="G10">
-        <v>-0.4959285193790599</v>
-      </c>
-      <c r="H10">
-        <v>-0.9109980921054914</v>
-      </c>
-      <c r="I10">
-        <v>1.61701494300614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="B21">
+        <v>0.9381745284743258</v>
+      </c>
+      <c r="C21">
+        <v>0.4285965410413923</v>
+      </c>
+      <c r="D21">
+        <v>1.26602209999485</v>
+      </c>
+      <c r="E21">
+        <v>0.09542605064770129</v>
+      </c>
+      <c r="F21">
+        <v>0.1112852285573787</v>
+      </c>
+      <c r="G21">
+        <v>0.1542249589143003</v>
+      </c>
+      <c r="H21">
+        <v>0.06735682145167929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>0.5608050313664484</v>
-      </c>
-      <c r="C11">
-        <v>-0.5683837919844372</v>
-      </c>
-      <c r="D11">
-        <v>-0.2765076182043134</v>
-      </c>
-      <c r="E11">
-        <v>0.05938032407469167</v>
-      </c>
-      <c r="F11">
-        <v>1.000968527392019</v>
-      </c>
-      <c r="G11">
-        <v>-0.4306107233953831</v>
-      </c>
-      <c r="H11">
-        <v>-0.785618890785453</v>
-      </c>
-      <c r="I11">
-        <v>2.999989571607855</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>13.00433607369738</v>
-      </c>
-      <c r="C12">
-        <v>-6.963135884012186</v>
-      </c>
-      <c r="D12">
-        <v>-4.852006759248007</v>
-      </c>
-      <c r="E12">
-        <v>1.452927787460301</v>
-      </c>
-      <c r="F12">
-        <v>30.34822111566468</v>
-      </c>
-      <c r="G12">
-        <v>-7.315411839289526</v>
-      </c>
-      <c r="H12">
-        <v>-13.89485746648749</v>
-      </c>
-      <c r="I12">
-        <v>25.21832998469387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>-0.1815067580037308</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>-0.08934311143250923</v>
-      </c>
-      <c r="E13">
-        <v>-0.09060164990567836</v>
-      </c>
-      <c r="F13">
-        <v>-0.178383356085952</v>
-      </c>
-      <c r="G13">
-        <v>0.07728296741674846</v>
-      </c>
-      <c r="H13">
-        <v>0.155493112393707</v>
-      </c>
-      <c r="I13">
-        <v>-0.2896794032562575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>-0.2902703257097022</v>
-      </c>
-      <c r="C14">
-        <v>0.08934311143250923</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14">
-        <v>-0.09182213067639987</v>
-      </c>
-      <c r="F14">
-        <v>-0.2412756496382671</v>
-      </c>
-      <c r="G14">
-        <v>0.07849708938791329</v>
-      </c>
-      <c r="H14">
-        <v>0.1498099284753093</v>
-      </c>
-      <c r="I14">
-        <v>-0.275376835097305</v>
+      <c r="B22">
+        <v>21.24152727666368</v>
+      </c>
+      <c r="C22">
+        <v>18.51222630216838</v>
+      </c>
+      <c r="D22">
+        <v>49.98920770870089</v>
+      </c>
+      <c r="E22">
+        <v>2.895740065753289</v>
+      </c>
+      <c r="F22">
+        <v>3.307897729453089</v>
+      </c>
+      <c r="G22">
+        <v>5.2033672335863</v>
+      </c>
+      <c r="H22">
+        <v>3.19724676472951</v>
       </c>
     </row>
   </sheetData>
